--- a/DEI Topic List.xlsx
+++ b/DEI Topic List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="513">
   <si>
     <t>None of the Above</t>
   </si>
@@ -116,12 +116,6 @@
     <t>contains Islam</t>
   </si>
   <si>
-    <t>^\y(?!\w*terrorism)\w*(islam(?!.*(fundamentalism|terrorism)))</t>
-  </si>
-  <si>
-    <t>excluding terrorism and fundamentalism</t>
-  </si>
-  <si>
     <t>id al fitr / id al adha</t>
   </si>
   <si>
@@ -1331,12 +1325,6 @@
     <t>justice</t>
   </si>
   <si>
-    <t>(?&lt;!fugitives from )justice(?!(s of the peace)|(\s(league|society|donald)))</t>
-  </si>
-  <si>
-    <t>Exclude Fugitives from justice, justices of the peace, justice league, justice society, donald justice</t>
-  </si>
-  <si>
     <t>ku klux klan</t>
   </si>
   <si>
@@ -1554,6 +1542,27 @@
   </si>
   <si>
     <t>Order</t>
+  </si>
+  <si>
+    <t>^\y(?!\w*terrorism)\w*(islam(?!.*(fundamentalism|terrorism|abad)))</t>
+  </si>
+  <si>
+    <t>excluding terrorism, fundamentalism and Islamabad</t>
+  </si>
+  <si>
+    <t>(?&lt;!(christ|mary\s|ezra\s))church(?!(ill|\sbenjamin|\sr w richard|\sfrederic|\sf forrester))</t>
+  </si>
+  <si>
+    <t>Exclude Churchill or anyone with Church in their name</t>
+  </si>
+  <si>
+    <t>(?&lt;!(fugitives from |young |jones ))justice(?!(s of the peace)|(\s(league|society|donald|benjamin|victoria)))</t>
+  </si>
+  <si>
+    <t>Exclude Fugitives from justice, justices of the peace, justice league, justice society, young justice, various people named justice</t>
+  </si>
+  <si>
+    <t>genocide</t>
   </si>
 </sst>
 </file>
@@ -1886,12 +1895,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E339"/>
+  <dimension ref="A1:E340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C306" sqref="C306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,19 +1914,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="225" x14ac:dyDescent="0.25">
@@ -1931,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -2131,7 +2140,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -2142,10 +2151,10 @@
         <v>29</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
+        <v>506</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>31</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2156,10 +2165,10 @@
         <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2170,10 +2179,10 @@
         <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2184,10 +2193,10 @@
         <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2198,10 +2207,10 @@
         <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2212,10 +2221,10 @@
         <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2226,10 +2235,10 @@
         <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2240,10 +2249,10 @@
         <v>28</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2254,13 +2263,13 @@
         <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2271,10 +2280,10 @@
         <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2282,13 +2291,13 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>11</v>
@@ -2299,13 +2308,13 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2313,13 +2322,13 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2327,13 +2336,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2341,13 +2350,13 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2355,13 +2364,13 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2369,16 +2378,16 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2386,13 +2395,13 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2400,13 +2409,13 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2414,13 +2423,13 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2428,13 +2437,13 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2442,13 +2451,13 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2456,13 +2465,13 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>11</v>
@@ -2473,16 +2482,16 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2490,16 +2499,16 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2507,16 +2516,16 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2524,13 +2533,13 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2538,13 +2547,13 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2552,13 +2561,13 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="D44" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2566,13 +2575,13 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2580,16 +2589,16 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2597,13 +2606,13 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2611,13 +2620,13 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2625,13 +2634,13 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2639,13 +2648,13 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2653,13 +2662,13 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2667,16 +2676,16 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2684,16 +2693,16 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2701,13 +2710,13 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2715,16 +2724,16 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2732,13 +2741,13 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2746,13 +2755,13 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2760,16 +2769,16 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2777,13 +2786,13 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2791,13 +2800,13 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2805,13 +2814,13 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2819,13 +2828,13 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2833,16 +2842,16 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2850,13 +2859,13 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2864,16 +2873,16 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2881,16 +2890,16 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2898,13 +2907,13 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2912,13 +2921,13 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2926,13 +2935,13 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2940,13 +2949,13 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2954,13 +2963,13 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2968,16 +2977,16 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2985,13 +2994,13 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2999,16 +3008,16 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3016,13 +3025,13 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3030,13 +3039,13 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3044,13 +3053,13 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3058,13 +3067,13 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3072,13 +3081,13 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3086,16 +3095,16 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3103,13 +3112,13 @@
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3117,13 +3126,13 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3131,13 +3140,13 @@
         <v>10</v>
       </c>
       <c r="B83" t="s">
+        <v>137</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="D83" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3145,13 +3154,13 @@
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3159,13 +3168,13 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3173,13 +3182,13 @@
         <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3187,13 +3196,13 @@
         <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3201,16 +3210,16 @@
         <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3218,13 +3227,13 @@
         <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3232,13 +3241,13 @@
         <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3246,13 +3255,13 @@
         <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3260,13 +3269,13 @@
         <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3274,13 +3283,13 @@
         <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -3288,13 +3297,13 @@
         <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -3302,13 +3311,13 @@
         <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -3316,13 +3325,13 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3330,13 +3339,13 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
+        <v>156</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="D97" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3344,13 +3353,13 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3358,16 +3367,16 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3375,13 +3384,13 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3389,13 +3398,13 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3403,13 +3412,13 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3417,13 +3426,13 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3431,16 +3440,16 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3448,13 +3457,13 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3462,13 +3471,13 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3476,13 +3485,13 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3490,13 +3499,13 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3504,13 +3513,13 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -3518,16 +3527,16 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C110" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3535,16 +3544,16 @@
         <v>12</v>
       </c>
       <c r="B111" t="s">
+        <v>181</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3552,13 +3561,13 @@
         <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -3566,13 +3575,13 @@
         <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -3580,13 +3589,13 @@
         <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3594,13 +3603,13 @@
         <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -3608,13 +3617,13 @@
         <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -3622,13 +3631,13 @@
         <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3636,13 +3645,13 @@
         <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -3650,13 +3659,13 @@
         <v>13</v>
       </c>
       <c r="B119" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3664,13 +3673,13 @@
         <v>13</v>
       </c>
       <c r="B120" t="s">
+        <v>192</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="D120" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3678,13 +3687,13 @@
         <v>13</v>
       </c>
       <c r="B121" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3692,13 +3701,13 @@
         <v>13</v>
       </c>
       <c r="B122" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3706,16 +3715,16 @@
         <v>13</v>
       </c>
       <c r="B123" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C123" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3723,13 +3732,13 @@
         <v>13</v>
       </c>
       <c r="B124" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3737,13 +3746,13 @@
         <v>13</v>
       </c>
       <c r="B125" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -3751,13 +3760,13 @@
         <v>13</v>
       </c>
       <c r="B126" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -3765,13 +3774,13 @@
         <v>13</v>
       </c>
       <c r="B127" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -3779,13 +3788,13 @@
         <v>13</v>
       </c>
       <c r="B128" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3793,13 +3802,13 @@
         <v>13</v>
       </c>
       <c r="B129" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -3807,13 +3816,13 @@
         <v>13</v>
       </c>
       <c r="B130" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3821,13 +3830,13 @@
         <v>13</v>
       </c>
       <c r="B131" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3835,13 +3844,13 @@
         <v>13</v>
       </c>
       <c r="B132" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -3849,13 +3858,13 @@
         <v>13</v>
       </c>
       <c r="B133" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -3863,13 +3872,13 @@
         <v>13</v>
       </c>
       <c r="B134" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -3877,13 +3886,13 @@
         <v>14</v>
       </c>
       <c r="B135" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -3891,13 +3900,13 @@
         <v>14</v>
       </c>
       <c r="B136" t="s">
+        <v>212</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="D136" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -3905,13 +3914,13 @@
         <v>14</v>
       </c>
       <c r="B137" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -3919,13 +3928,13 @@
         <v>14</v>
       </c>
       <c r="B138" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -3933,13 +3942,13 @@
         <v>14</v>
       </c>
       <c r="B139" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -3947,13 +3956,13 @@
         <v>14</v>
       </c>
       <c r="B140" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -3961,16 +3970,16 @@
         <v>14</v>
       </c>
       <c r="B141" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C141" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E141" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -3978,13 +3987,13 @@
         <v>14</v>
       </c>
       <c r="B142" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -3992,16 +4001,16 @@
         <v>14</v>
       </c>
       <c r="B143" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C143" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -4009,13 +4018,13 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -4023,13 +4032,13 @@
         <v>14</v>
       </c>
       <c r="B145" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -4037,13 +4046,13 @@
         <v>14</v>
       </c>
       <c r="B146" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4051,13 +4060,13 @@
         <v>14</v>
       </c>
       <c r="B147" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -4065,16 +4074,16 @@
         <v>14</v>
       </c>
       <c r="B148" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C148" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -4082,13 +4091,13 @@
         <v>14</v>
       </c>
       <c r="B149" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -4096,13 +4105,13 @@
         <v>14</v>
       </c>
       <c r="B150" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -4110,16 +4119,16 @@
         <v>15</v>
       </c>
       <c r="B151" t="s">
+        <v>236</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="E151" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -4127,13 +4136,13 @@
         <v>15</v>
       </c>
       <c r="B152" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -4141,13 +4150,13 @@
         <v>15</v>
       </c>
       <c r="B153" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -4155,13 +4164,13 @@
         <v>15</v>
       </c>
       <c r="B154" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4169,16 +4178,16 @@
         <v>15</v>
       </c>
       <c r="B155" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C155" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E155" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -4186,16 +4195,16 @@
         <v>15</v>
       </c>
       <c r="B156" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -4203,16 +4212,16 @@
         <v>15</v>
       </c>
       <c r="B157" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C157" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E157" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4220,16 +4229,16 @@
         <v>15</v>
       </c>
       <c r="B158" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C158" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -4237,16 +4246,16 @@
         <v>15</v>
       </c>
       <c r="B159" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C159" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -4254,13 +4263,13 @@
         <v>15</v>
       </c>
       <c r="B160" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -4268,13 +4277,13 @@
         <v>15</v>
       </c>
       <c r="B161" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -4282,13 +4291,13 @@
         <v>15</v>
       </c>
       <c r="B162" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -4296,13 +4305,13 @@
         <v>15</v>
       </c>
       <c r="B163" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -4310,16 +4319,16 @@
         <v>15</v>
       </c>
       <c r="B164" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -4327,13 +4336,13 @@
         <v>15</v>
       </c>
       <c r="B165" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -4341,13 +4350,13 @@
         <v>15</v>
       </c>
       <c r="B166" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -4355,13 +4364,13 @@
         <v>15</v>
       </c>
       <c r="B167" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -4369,13 +4378,13 @@
         <v>15</v>
       </c>
       <c r="B168" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4383,16 +4392,16 @@
         <v>15</v>
       </c>
       <c r="B169" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C169" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E169" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -4400,13 +4409,13 @@
         <v>15</v>
       </c>
       <c r="B170" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -4414,13 +4423,13 @@
         <v>16</v>
       </c>
       <c r="B171" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -4428,13 +4437,13 @@
         <v>16</v>
       </c>
       <c r="B172" t="s">
+        <v>272</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="D172" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -4442,16 +4451,16 @@
         <v>16</v>
       </c>
       <c r="B173" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C173" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E173" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -4459,13 +4468,13 @@
         <v>16</v>
       </c>
       <c r="B174" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -4473,13 +4482,13 @@
         <v>16</v>
       </c>
       <c r="B175" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -4487,13 +4496,13 @@
         <v>16</v>
       </c>
       <c r="B176" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -4501,16 +4510,16 @@
         <v>16</v>
       </c>
       <c r="B177" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C177" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E177" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -4518,13 +4527,13 @@
         <v>16</v>
       </c>
       <c r="B178" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -4532,13 +4541,13 @@
         <v>16</v>
       </c>
       <c r="B179" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -4546,13 +4555,13 @@
         <v>16</v>
       </c>
       <c r="B180" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -4560,13 +4569,13 @@
         <v>16</v>
       </c>
       <c r="B181" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -4574,13 +4583,13 @@
         <v>16</v>
       </c>
       <c r="B182" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -4588,13 +4597,13 @@
         <v>16</v>
       </c>
       <c r="B183" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -4602,13 +4611,13 @@
         <v>16</v>
       </c>
       <c r="B184" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -4616,13 +4625,13 @@
         <v>16</v>
       </c>
       <c r="B185" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -4630,13 +4639,13 @@
         <v>16</v>
       </c>
       <c r="B186" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -4644,13 +4653,13 @@
         <v>16</v>
       </c>
       <c r="B187" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -4658,13 +4667,13 @@
         <v>16</v>
       </c>
       <c r="B188" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -4672,16 +4681,16 @@
         <v>16</v>
       </c>
       <c r="B189" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C189" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -4689,13 +4698,13 @@
         <v>16</v>
       </c>
       <c r="B190" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -4703,13 +4712,13 @@
         <v>16</v>
       </c>
       <c r="B191" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -4717,13 +4726,13 @@
         <v>16</v>
       </c>
       <c r="B192" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -4731,16 +4740,16 @@
         <v>16</v>
       </c>
       <c r="B193" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C193" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E193" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -4748,13 +4757,13 @@
         <v>16</v>
       </c>
       <c r="B194" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -4762,13 +4771,13 @@
         <v>16</v>
       </c>
       <c r="B195" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -4776,13 +4785,13 @@
         <v>16</v>
       </c>
       <c r="B196" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -4790,13 +4799,13 @@
         <v>16</v>
       </c>
       <c r="B197" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -4804,13 +4813,13 @@
         <v>16</v>
       </c>
       <c r="B198" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -4818,13 +4827,13 @@
         <v>16</v>
       </c>
       <c r="B199" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -4832,13 +4841,13 @@
         <v>16</v>
       </c>
       <c r="B200" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -4846,13 +4855,13 @@
         <v>16</v>
       </c>
       <c r="B201" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -4860,13 +4869,13 @@
         <v>16</v>
       </c>
       <c r="B202" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -4874,13 +4883,13 @@
         <v>17</v>
       </c>
       <c r="B203" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4888,16 +4897,16 @@
         <v>17</v>
       </c>
       <c r="B204" t="s">
+        <v>313</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="D204" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E204" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -4905,16 +4914,16 @@
         <v>17</v>
       </c>
       <c r="B205" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -4922,13 +4931,13 @@
         <v>17</v>
       </c>
       <c r="B206" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -4936,13 +4945,13 @@
         <v>17</v>
       </c>
       <c r="B207" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -4950,16 +4959,16 @@
         <v>17</v>
       </c>
       <c r="B208" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C208" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E208" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4967,13 +4976,13 @@
         <v>17</v>
       </c>
       <c r="B209" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -4981,16 +4990,16 @@
         <v>17</v>
       </c>
       <c r="B210" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C210" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E210" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -4998,13 +5007,13 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -5012,13 +5021,13 @@
         <v>17</v>
       </c>
       <c r="B212" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -5026,13 +5035,13 @@
         <v>17</v>
       </c>
       <c r="B213" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -5040,13 +5049,13 @@
         <v>17</v>
       </c>
       <c r="B214" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5054,16 +5063,16 @@
         <v>17</v>
       </c>
       <c r="B215" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C215" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E215" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -5071,16 +5080,16 @@
         <v>17</v>
       </c>
       <c r="B216" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C216" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E216" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -5088,13 +5097,13 @@
         <v>17</v>
       </c>
       <c r="B217" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -5102,13 +5111,13 @@
         <v>17</v>
       </c>
       <c r="B218" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -5116,13 +5125,13 @@
         <v>17</v>
       </c>
       <c r="B219" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -5130,13 +5139,13 @@
         <v>17</v>
       </c>
       <c r="B220" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5144,16 +5153,16 @@
         <v>17</v>
       </c>
       <c r="B221" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C221" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E221" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -5161,16 +5170,16 @@
         <v>17</v>
       </c>
       <c r="B222" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -5178,13 +5187,13 @@
         <v>17</v>
       </c>
       <c r="B223" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -5192,13 +5201,13 @@
         <v>17</v>
       </c>
       <c r="B224" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -5206,16 +5215,16 @@
         <v>17</v>
       </c>
       <c r="B225" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C225" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E225" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -5223,13 +5232,13 @@
         <v>17</v>
       </c>
       <c r="B226" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -5237,13 +5246,13 @@
         <v>17</v>
       </c>
       <c r="B227" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -5251,13 +5260,13 @@
         <v>17</v>
       </c>
       <c r="B228" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -5265,16 +5274,16 @@
         <v>17</v>
       </c>
       <c r="B229" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C229" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E229" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5282,16 +5291,16 @@
         <v>17</v>
       </c>
       <c r="B230" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C230" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E230" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -5299,13 +5308,13 @@
         <v>17</v>
       </c>
       <c r="B231" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -5313,13 +5322,13 @@
         <v>17</v>
       </c>
       <c r="B232" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5327,16 +5336,16 @@
         <v>17</v>
       </c>
       <c r="B233" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -5344,13 +5353,13 @@
         <v>17</v>
       </c>
       <c r="B234" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -5358,16 +5367,16 @@
         <v>17</v>
       </c>
       <c r="B235" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -5375,13 +5384,13 @@
         <v>17</v>
       </c>
       <c r="B236" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -5389,13 +5398,13 @@
         <v>17</v>
       </c>
       <c r="B237" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -5403,13 +5412,13 @@
         <v>17</v>
       </c>
       <c r="B238" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -5417,13 +5426,13 @@
         <v>17</v>
       </c>
       <c r="B239" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -5431,13 +5440,13 @@
         <v>17</v>
       </c>
       <c r="B240" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -5445,16 +5454,16 @@
         <v>17</v>
       </c>
       <c r="B241" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C241" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E241" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -5462,13 +5471,13 @@
         <v>17</v>
       </c>
       <c r="B242" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -5476,13 +5485,13 @@
         <v>17</v>
       </c>
       <c r="B243" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -5490,13 +5499,13 @@
         <v>17</v>
       </c>
       <c r="B244" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5504,16 +5513,16 @@
         <v>17</v>
       </c>
       <c r="B245" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C245" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E245" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -5521,13 +5530,13 @@
         <v>17</v>
       </c>
       <c r="B246" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -5535,13 +5544,13 @@
         <v>17</v>
       </c>
       <c r="B247" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -5549,16 +5558,16 @@
         <v>17</v>
       </c>
       <c r="B248" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C248" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E248" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -5566,16 +5575,16 @@
         <v>17</v>
       </c>
       <c r="B249" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C249" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E249" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -5583,16 +5592,16 @@
         <v>17</v>
       </c>
       <c r="B250" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -5600,13 +5609,13 @@
         <v>17</v>
       </c>
       <c r="B251" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -5614,13 +5623,13 @@
         <v>17</v>
       </c>
       <c r="B252" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -5628,13 +5637,13 @@
         <v>17</v>
       </c>
       <c r="B253" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -5642,13 +5651,13 @@
         <v>17</v>
       </c>
       <c r="B254" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -5656,13 +5665,13 @@
         <v>18</v>
       </c>
       <c r="B255" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -5670,13 +5679,13 @@
         <v>18</v>
       </c>
       <c r="B256" t="s">
+        <v>398</v>
+      </c>
+      <c r="C256" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C256" s="1" t="s">
-        <v>402</v>
-      </c>
       <c r="D256" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -5684,13 +5693,13 @@
         <v>18</v>
       </c>
       <c r="B257" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5698,13 +5707,13 @@
         <v>18</v>
       </c>
       <c r="B258" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -5712,13 +5721,13 @@
         <v>18</v>
       </c>
       <c r="B259" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5726,13 +5735,13 @@
         <v>18</v>
       </c>
       <c r="B260" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -5740,13 +5749,13 @@
         <v>18</v>
       </c>
       <c r="B261" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -5754,13 +5763,13 @@
         <v>18</v>
       </c>
       <c r="B262" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -5768,13 +5777,13 @@
         <v>18</v>
       </c>
       <c r="B263" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -5782,13 +5791,13 @@
         <v>18</v>
       </c>
       <c r="B264" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -5796,13 +5805,13 @@
         <v>18</v>
       </c>
       <c r="B265" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -5810,13 +5819,13 @@
         <v>18</v>
       </c>
       <c r="B266" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -5824,13 +5833,13 @@
         <v>18</v>
       </c>
       <c r="B267" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -5838,13 +5847,13 @@
         <v>18</v>
       </c>
       <c r="B268" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -5852,13 +5861,13 @@
         <v>18</v>
       </c>
       <c r="B269" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -5866,13 +5875,13 @@
         <v>18</v>
       </c>
       <c r="B270" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -5880,13 +5889,13 @@
         <v>18</v>
       </c>
       <c r="B271" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5894,13 +5903,13 @@
         <v>18</v>
       </c>
       <c r="B272" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -5908,13 +5917,13 @@
         <v>18</v>
       </c>
       <c r="B273" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -5922,13 +5931,13 @@
         <v>19</v>
       </c>
       <c r="B274" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -5936,13 +5945,13 @@
         <v>19</v>
       </c>
       <c r="B275" t="s">
+        <v>418</v>
+      </c>
+      <c r="C275" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C275" s="1" t="s">
-        <v>422</v>
-      </c>
       <c r="D275" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -5950,13 +5959,13 @@
         <v>19</v>
       </c>
       <c r="B276" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -5964,13 +5973,13 @@
         <v>19</v>
       </c>
       <c r="B277" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -5978,13 +5987,13 @@
         <v>19</v>
       </c>
       <c r="B278" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -5992,13 +6001,13 @@
         <v>19</v>
       </c>
       <c r="B279" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -6006,13 +6015,13 @@
         <v>19</v>
       </c>
       <c r="B280" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -6020,13 +6029,13 @@
         <v>19</v>
       </c>
       <c r="B281" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -6034,13 +6043,13 @@
         <v>19</v>
       </c>
       <c r="B282" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -6048,13 +6057,13 @@
         <v>19</v>
       </c>
       <c r="B283" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -6062,30 +6071,30 @@
         <v>19</v>
       </c>
       <c r="B284" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>19</v>
       </c>
       <c r="B285" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>435</v>
+        <v>510</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>436</v>
+        <v>511</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -6093,13 +6102,13 @@
         <v>19</v>
       </c>
       <c r="B286" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -6107,13 +6116,13 @@
         <v>19</v>
       </c>
       <c r="B287" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -6121,13 +6130,13 @@
         <v>19</v>
       </c>
       <c r="B288" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -6135,13 +6144,13 @@
         <v>19</v>
       </c>
       <c r="B289" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -6149,13 +6158,13 @@
         <v>19</v>
       </c>
       <c r="B290" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -6163,13 +6172,13 @@
         <v>19</v>
       </c>
       <c r="B291" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -6177,13 +6186,13 @@
         <v>19</v>
       </c>
       <c r="B292" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -6191,13 +6200,13 @@
         <v>19</v>
       </c>
       <c r="B293" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -6205,13 +6214,13 @@
         <v>19</v>
       </c>
       <c r="B294" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -6219,13 +6228,13 @@
         <v>19</v>
       </c>
       <c r="B295" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -6233,13 +6242,13 @@
         <v>19</v>
       </c>
       <c r="B296" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -6247,13 +6256,13 @@
         <v>19</v>
       </c>
       <c r="B297" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -6261,13 +6270,13 @@
         <v>19</v>
       </c>
       <c r="B298" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -6275,13 +6284,13 @@
         <v>19</v>
       </c>
       <c r="B299" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -6289,13 +6298,13 @@
         <v>19</v>
       </c>
       <c r="B300" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -6303,13 +6312,13 @@
         <v>19</v>
       </c>
       <c r="B301" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -6317,13 +6326,13 @@
         <v>19</v>
       </c>
       <c r="B302" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -6331,13 +6340,13 @@
         <v>19</v>
       </c>
       <c r="B303" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -6345,13 +6354,13 @@
         <v>19</v>
       </c>
       <c r="B304" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -6359,13 +6368,13 @@
         <v>19</v>
       </c>
       <c r="B305" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -6373,13 +6382,13 @@
         <v>19</v>
       </c>
       <c r="B306" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -6387,13 +6396,13 @@
         <v>19</v>
       </c>
       <c r="B307" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -6401,27 +6410,27 @@
         <v>19</v>
       </c>
       <c r="B308" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B309" t="s">
-        <v>463</v>
+        <v>418</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -6429,13 +6438,13 @@
         <v>20</v>
       </c>
       <c r="B310" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -6443,13 +6452,13 @@
         <v>20</v>
       </c>
       <c r="B311" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -6457,13 +6466,13 @@
         <v>20</v>
       </c>
       <c r="B312" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -6471,13 +6480,13 @@
         <v>20</v>
       </c>
       <c r="B313" t="s">
+        <v>459</v>
+      </c>
+      <c r="C313" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C313" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="D313" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -6485,16 +6494,13 @@
         <v>20</v>
       </c>
       <c r="B314" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="E314" s="1" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -6502,13 +6508,16 @@
         <v>20</v>
       </c>
       <c r="B315" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>472</v>
+        <v>466</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -6516,13 +6525,13 @@
         <v>20</v>
       </c>
       <c r="B316" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -6530,13 +6539,13 @@
         <v>20</v>
       </c>
       <c r="B317" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -6544,27 +6553,27 @@
         <v>20</v>
       </c>
       <c r="B318" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B319" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -6572,13 +6581,13 @@
         <v>21</v>
       </c>
       <c r="B320" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -6586,13 +6595,13 @@
         <v>21</v>
       </c>
       <c r="B321" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -6600,13 +6609,13 @@
         <v>21</v>
       </c>
       <c r="B322" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -6614,44 +6623,44 @@
         <v>21</v>
       </c>
       <c r="B323" t="s">
+        <v>473</v>
+      </c>
+      <c r="C323" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C323" s="1" t="s">
-        <v>482</v>
-      </c>
       <c r="D323" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>21</v>
       </c>
       <c r="B324" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="E324" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>21</v>
       </c>
       <c r="B325" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -6659,27 +6668,30 @@
         <v>21</v>
       </c>
       <c r="B326" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>21</v>
       </c>
       <c r="B327" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>488</v>
+        <v>508</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -6687,16 +6699,13 @@
         <v>21</v>
       </c>
       <c r="B328" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="E328" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -6704,13 +6713,16 @@
         <v>21</v>
       </c>
       <c r="B329" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>492</v>
+        <v>486</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -6718,13 +6730,13 @@
         <v>21</v>
       </c>
       <c r="B330" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -6732,13 +6744,13 @@
         <v>21</v>
       </c>
       <c r="B331" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -6746,13 +6758,13 @@
         <v>21</v>
       </c>
       <c r="B332" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -6760,13 +6772,13 @@
         <v>21</v>
       </c>
       <c r="B333" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -6774,13 +6786,13 @@
         <v>21</v>
       </c>
       <c r="B334" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -6788,13 +6800,13 @@
         <v>21</v>
       </c>
       <c r="B335" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -6802,13 +6814,13 @@
         <v>21</v>
       </c>
       <c r="B336" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -6816,13 +6828,13 @@
         <v>21</v>
       </c>
       <c r="B337" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -6830,13 +6842,13 @@
         <v>21</v>
       </c>
       <c r="B338" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -6844,13 +6856,27 @@
         <v>21</v>
       </c>
       <c r="B339" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>502</v>
+        <v>497</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>21</v>
+      </c>
+      <c r="B340" t="s">
+        <v>473</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>
